--- a/BizAppPrj/src/SYS_DOC/SAMPLE_PRO_UPLOAD.xlsx
+++ b/BizAppPrj/src/SYS_DOC/SAMPLE_PRO_UPLOAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1649,12 +1649,12 @@
         <v/>
       </c>
       <c r="K93" t="str">
-        <f t="shared" ref="K71:K93" si="0">CONCATENATE(B93," ",D93," ",F93," ",H93," ",J93)</f>
+        <f t="shared" ref="K93" si="0">CONCATENATE(B93," ",D93," ",F93," ",H93," ",J93)</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="N93" s="36"/>
       <c r="Q93" s="32" t="e">
-        <f t="shared" ref="Q72:Q99" si="1">+(M93-L93)/L93</f>
+        <f t="shared" ref="Q93:Q99" si="1">+(M93-L93)/L93</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8250,7 +8250,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A3:B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9451,8 +9451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A3:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9466,8 +9466,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>30</v>
+      <c r="B1" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
